--- a/Instances/K0011331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
+++ b/Instances/K0011331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>

--- a/Instances/K0011331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
+++ b/Instances/K0011331_Lumpy_b2_fe25_el_rk25_ll0_l20_H04_c2_A4_a0.1.xlsx
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1299,11 +1299,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.1</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
